--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Week</t>
   </si>
@@ -233,13 +233,31 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/poisonous-plants/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/swap-nodes-algo</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/kittys-calculations-on-a-tree</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/largest-rectangle</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/construct-the-array/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/fibonacci-modified/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/almost-integer-rock-garden/problem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -264,13 +282,24 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -282,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -304,6 +333,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1132,6 +1164,54 @@
         <v>73</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1206,7 +1286,13 @@
     <hyperlink r:id="rId70" ref="B71"/>
     <hyperlink r:id="rId71" ref="B72"/>
     <hyperlink r:id="rId72" ref="B73"/>
+    <hyperlink r:id="rId73" ref="B74"/>
+    <hyperlink r:id="rId74" ref="B75"/>
+    <hyperlink r:id="rId75" ref="B76"/>
+    <hyperlink r:id="rId76" ref="B77"/>
+    <hyperlink r:id="rId77" ref="B78"/>
+    <hyperlink r:id="rId78" ref="B79"/>
   </hyperlinks>
-  <drawing r:id="rId73"/>
+  <drawing r:id="rId79"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Week</t>
   </si>
@@ -251,6 +251,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/almost-integer-rock-garden/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/countingsort4/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/polynomial-division/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/palindromic-subsets/problem</t>
   </si>
 </sst>
 </file>
@@ -1212,6 +1221,30 @@
         <v>79</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1292,7 +1325,10 @@
     <hyperlink r:id="rId76" ref="B77"/>
     <hyperlink r:id="rId77" ref="B78"/>
     <hyperlink r:id="rId78" ref="B79"/>
+    <hyperlink r:id="rId79" ref="B80"/>
+    <hyperlink r:id="rId80" ref="B81"/>
+    <hyperlink r:id="rId81" ref="B82"/>
   </hyperlinks>
-  <drawing r:id="rId79"/>
+  <drawing r:id="rId82"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Week</t>
   </si>
@@ -260,6 +260,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/palindromic-subsets/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/red-knights-shortest-path/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/journey-scheduling/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/heavy-light-white-falcon/problem</t>
   </si>
 </sst>
 </file>
@@ -1245,6 +1254,30 @@
         <v>82</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1328,7 +1361,10 @@
     <hyperlink r:id="rId79" ref="B80"/>
     <hyperlink r:id="rId80" ref="B81"/>
     <hyperlink r:id="rId81" ref="B82"/>
+    <hyperlink r:id="rId82" ref="B83"/>
+    <hyperlink r:id="rId83" ref="B84"/>
+    <hyperlink r:id="rId84" ref="B85"/>
   </hyperlinks>
-  <drawing r:id="rId82"/>
+  <drawing r:id="rId85"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Week</t>
   </si>
@@ -269,6 +269,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/heavy-light-white-falcon/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/x-and-his-shots/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/burger-happiness/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/brick-tiling/problem</t>
   </si>
 </sst>
 </file>
@@ -299,12 +308,12 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -349,11 +358,11 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,7 +936,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7">
+      <c r="A42" s="4">
         <v>14.0</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -935,7 +944,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7">
+      <c r="A43" s="4">
         <v>14.0</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -943,7 +952,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7">
+      <c r="A44" s="4">
         <v>15.0</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -951,7 +960,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7">
+      <c r="A45" s="4">
         <v>15.0</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -959,7 +968,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7">
+      <c r="A46" s="4">
         <v>15.0</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -967,7 +976,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7">
+      <c r="A47" s="4">
         <v>16.0</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -975,7 +984,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="7">
+      <c r="A48" s="4">
         <v>16.0</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -983,7 +992,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="7">
+      <c r="A49" s="4">
         <v>16.0</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -991,7 +1000,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7">
+      <c r="A50" s="4">
         <v>17.0</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -999,7 +1008,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7">
+      <c r="A51" s="4">
         <v>17.0</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -1007,7 +1016,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7">
+      <c r="A52" s="4">
         <v>17.0</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -1015,7 +1024,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7">
+      <c r="A53" s="4">
         <v>18.0</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -1023,7 +1032,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7">
+      <c r="A54" s="4">
         <v>18.0</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -1031,7 +1040,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7">
+      <c r="A55" s="4">
         <v>18.0</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -1039,7 +1048,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7">
+      <c r="A56" s="4">
         <v>19.0</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -1047,7 +1056,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7">
+      <c r="A57" s="4">
         <v>19.0</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -1055,7 +1064,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7">
+      <c r="A58" s="4">
         <v>19.0</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -1063,7 +1072,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7">
+      <c r="A59" s="4">
         <v>20.0</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -1071,7 +1080,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7">
+      <c r="A60" s="4">
         <v>20.0</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -1079,7 +1088,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7">
+      <c r="A61" s="4">
         <v>20.0</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -1087,7 +1096,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7">
+      <c r="A62" s="4">
         <v>21.0</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -1095,7 +1104,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7">
+      <c r="A63" s="4">
         <v>21.0</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -1103,7 +1112,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="7">
+      <c r="A64" s="4">
         <v>21.0</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -1111,7 +1120,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="7">
+      <c r="A65" s="4">
         <v>22.0</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -1119,7 +1128,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7">
+      <c r="A66" s="4">
         <v>22.0</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -1127,7 +1136,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="7">
+      <c r="A67" s="4">
         <v>22.0</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -1135,7 +1144,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7">
+      <c r="A68" s="4">
         <v>23.0</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -1143,7 +1152,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="7">
+      <c r="A69" s="4">
         <v>23.0</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -1151,7 +1160,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="7">
+      <c r="A70" s="4">
         <v>23.0</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -1159,7 +1168,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="7">
+      <c r="A71" s="4">
         <v>24.0</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -1167,7 +1176,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7">
+      <c r="A72" s="4">
         <v>24.0</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -1175,7 +1184,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="7">
+      <c r="A73" s="4">
         <v>24.0</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -1183,31 +1192,31 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7">
+      <c r="A74" s="4">
         <v>25.0</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="7">
+      <c r="A75" s="4">
         <v>25.0</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="7">
+      <c r="A76" s="4">
         <v>25.0</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7">
+      <c r="A77" s="4">
         <v>26.0</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -1215,7 +1224,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="7">
+      <c r="A78" s="4">
         <v>26.0</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -1223,7 +1232,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="7">
+      <c r="A79" s="4">
         <v>26.0</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -1231,7 +1240,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="7">
+      <c r="A80" s="4">
         <v>27.0</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -1239,7 +1248,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="7">
+      <c r="A81" s="4">
         <v>27.0</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -1247,7 +1256,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="7">
+      <c r="A82" s="4">
         <v>27.0</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -1255,7 +1264,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="7">
+      <c r="A83" s="4">
         <v>28.0</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -1263,7 +1272,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="7">
+      <c r="A84" s="4">
         <v>28.0</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -1271,11 +1280,35 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="7">
+      <c r="A85" s="4">
         <v>28.0</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1397,10 @@
     <hyperlink r:id="rId82" ref="B83"/>
     <hyperlink r:id="rId83" ref="B84"/>
     <hyperlink r:id="rId84" ref="B85"/>
+    <hyperlink r:id="rId85" ref="B86"/>
+    <hyperlink r:id="rId86" ref="B87"/>
+    <hyperlink r:id="rId87" ref="B88"/>
   </hyperlinks>
-  <drawing r:id="rId85"/>
+  <drawing r:id="rId88"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Week</t>
   </si>
@@ -278,6 +278,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/brick-tiling/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/stone-division-2/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/board-cutting/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/and-xor-or/problem</t>
   </si>
 </sst>
 </file>
@@ -1311,6 +1320,30 @@
         <v>88</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1400,7 +1433,10 @@
     <hyperlink r:id="rId85" ref="B86"/>
     <hyperlink r:id="rId86" ref="B87"/>
     <hyperlink r:id="rId87" ref="B88"/>
+    <hyperlink r:id="rId88" ref="B89"/>
+    <hyperlink r:id="rId89" ref="B90"/>
+    <hyperlink r:id="rId90" ref="B91"/>
   </hyperlinks>
-  <drawing r:id="rId88"/>
+  <drawing r:id="rId91"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Week</t>
   </si>
@@ -287,6 +287,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/and-xor-or/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/prime-digit-sums/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/mandragora/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/kth-ancestor/problem</t>
   </si>
 </sst>
 </file>
@@ -1344,6 +1353,30 @@
         <v>91</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1436,7 +1469,10 @@
     <hyperlink r:id="rId88" ref="B89"/>
     <hyperlink r:id="rId89" ref="B90"/>
     <hyperlink r:id="rId90" ref="B91"/>
+    <hyperlink r:id="rId91" ref="B92"/>
+    <hyperlink r:id="rId92" ref="B93"/>
+    <hyperlink r:id="rId93" ref="B94"/>
   </hyperlinks>
-  <drawing r:id="rId91"/>
+  <drawing r:id="rId94"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Week</t>
   </si>
@@ -296,6 +296,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/kth-ancestor/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/fair-cut/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/the-power-sum/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/costly-intervals/problem</t>
   </si>
 </sst>
 </file>
@@ -1377,6 +1386,30 @@
         <v>94</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1472,7 +1505,10 @@
     <hyperlink r:id="rId91" ref="B92"/>
     <hyperlink r:id="rId92" ref="B93"/>
     <hyperlink r:id="rId93" ref="B94"/>
+    <hyperlink r:id="rId94" ref="B95"/>
+    <hyperlink r:id="rId95" ref="B96"/>
+    <hyperlink r:id="rId96" ref="B97"/>
   </hyperlinks>
-  <drawing r:id="rId94"/>
+  <drawing r:id="rId97"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Week</t>
   </si>
@@ -305,6 +305,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/costly-intervals/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/icecream-parlor/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/simple-text-editor/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/two-strings-game/problem</t>
   </si>
 </sst>
 </file>
@@ -1410,6 +1419,30 @@
         <v>97</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1508,7 +1541,10 @@
     <hyperlink r:id="rId94" ref="B95"/>
     <hyperlink r:id="rId95" ref="B96"/>
     <hyperlink r:id="rId96" ref="B97"/>
+    <hyperlink r:id="rId97" ref="B98"/>
+    <hyperlink r:id="rId98" ref="B99"/>
+    <hyperlink r:id="rId99" ref="B100"/>
   </hyperlinks>
-  <drawing r:id="rId97"/>
+  <drawing r:id="rId100"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Week</t>
   </si>
@@ -314,6 +314,24 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/two-strings-game/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/lego-blocks/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/unbounded-knapsack/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/sherlock-and-minimax/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/sherlock-and-array/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/bonetrousle/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/beautiful-3-set/problem</t>
   </si>
 </sst>
 </file>
@@ -1443,6 +1461,54 @@
         <v>100</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1544,7 +1610,13 @@
     <hyperlink r:id="rId97" ref="B98"/>
     <hyperlink r:id="rId98" ref="B99"/>
     <hyperlink r:id="rId99" ref="B100"/>
+    <hyperlink r:id="rId100" ref="B101"/>
+    <hyperlink r:id="rId101" ref="B102"/>
+    <hyperlink r:id="rId102" ref="B103"/>
+    <hyperlink r:id="rId103" ref="B104"/>
+    <hyperlink r:id="rId104" ref="B105"/>
+    <hyperlink r:id="rId105" ref="B106"/>
   </hyperlinks>
-  <drawing r:id="rId100"/>
+  <drawing r:id="rId106"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Week</t>
   </si>
@@ -332,6 +332,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/beautiful-3-set/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/greedy-florist/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/alien-languages/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/accessory-collection/problem</t>
   </si>
 </sst>
 </file>
@@ -1509,6 +1518,30 @@
         <v>106</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1616,7 +1649,10 @@
     <hyperlink r:id="rId103" ref="B104"/>
     <hyperlink r:id="rId104" ref="B105"/>
     <hyperlink r:id="rId105" ref="B106"/>
+    <hyperlink r:id="rId106" ref="B107"/>
+    <hyperlink r:id="rId107" ref="B108"/>
+    <hyperlink r:id="rId108" ref="B109"/>
   </hyperlinks>
-  <drawing r:id="rId106"/>
+  <drawing r:id="rId109"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Week</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/accessory-collection/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/largest-permutation/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/abbr/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/longest-increasing-subsequent/problem</t>
   </si>
 </sst>
 </file>
@@ -1542,6 +1551,30 @@
         <v>109</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1652,7 +1685,10 @@
     <hyperlink r:id="rId106" ref="B107"/>
     <hyperlink r:id="rId107" ref="B108"/>
     <hyperlink r:id="rId108" ref="B109"/>
+    <hyperlink r:id="rId109" ref="B110"/>
+    <hyperlink r:id="rId110" ref="B111"/>
+    <hyperlink r:id="rId111" ref="B112"/>
   </hyperlinks>
-  <drawing r:id="rId109"/>
+  <drawing r:id="rId112"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Week</t>
   </si>
@@ -350,6 +350,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/longest-increasing-subsequent/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/red-john-is-back/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/inverse-rmq/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/palindromic-border/problem</t>
   </si>
 </sst>
 </file>
@@ -1575,6 +1584,30 @@
         <v>112</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1688,7 +1721,10 @@
     <hyperlink r:id="rId109" ref="B110"/>
     <hyperlink r:id="rId110" ref="B111"/>
     <hyperlink r:id="rId111" ref="B112"/>
+    <hyperlink r:id="rId112" ref="B113"/>
+    <hyperlink r:id="rId113" ref="B114"/>
+    <hyperlink r:id="rId114" ref="B115"/>
   </hyperlinks>
-  <drawing r:id="rId112"/>
+  <drawing r:id="rId115"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Week</t>
   </si>
@@ -359,6 +359,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/palindromic-border/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/beautiful-pairs/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/fighting-pits/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/team-formation/problem</t>
   </si>
 </sst>
 </file>
@@ -1608,6 +1617,30 @@
         <v>115</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1724,7 +1757,10 @@
     <hyperlink r:id="rId112" ref="B113"/>
     <hyperlink r:id="rId113" ref="B114"/>
     <hyperlink r:id="rId114" ref="B115"/>
+    <hyperlink r:id="rId115" ref="B116"/>
+    <hyperlink r:id="rId116" ref="B117"/>
+    <hyperlink r:id="rId117" ref="B118"/>
   </hyperlinks>
-  <drawing r:id="rId115"/>
+  <drawing r:id="rId118"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Week</t>
   </si>
@@ -368,6 +368,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/team-formation/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/tutzki-and-lcs/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/taras-beautiful-permutations/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/sorted-subsegments/problem</t>
   </si>
 </sst>
 </file>
@@ -1641,6 +1650,30 @@
         <v>118</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1760,7 +1793,10 @@
     <hyperlink r:id="rId115" ref="B116"/>
     <hyperlink r:id="rId116" ref="B117"/>
     <hyperlink r:id="rId117" ref="B118"/>
+    <hyperlink r:id="rId118" ref="B119"/>
+    <hyperlink r:id="rId119" ref="B120"/>
+    <hyperlink r:id="rId120" ref="B121"/>
   </hyperlinks>
-  <drawing r:id="rId118"/>
+  <drawing r:id="rId121"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Week</t>
   </si>
@@ -377,6 +377,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/sorted-subsegments/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/insertionsort1/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/letter-islands/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/insertion-sort/problem</t>
   </si>
 </sst>
 </file>
@@ -1674,6 +1683,30 @@
         <v>121</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" s="8">
+        <v>41.0</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="8">
+        <v>41.0</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="8">
+        <v>41.0</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1796,7 +1829,10 @@
     <hyperlink r:id="rId118" ref="B119"/>
     <hyperlink r:id="rId119" ref="B120"/>
     <hyperlink r:id="rId120" ref="B121"/>
+    <hyperlink r:id="rId121" ref="B122"/>
+    <hyperlink r:id="rId122" ref="B123"/>
+    <hyperlink r:id="rId123" ref="B124"/>
   </hyperlinks>
-  <drawing r:id="rId121"/>
+  <drawing r:id="rId124"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Week</t>
   </si>
@@ -386,6 +386,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/insertion-sort/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/minimum-loss/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/far-vertices/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/hexagonal-grid/problem</t>
   </si>
 </sst>
 </file>
@@ -1707,6 +1716,30 @@
         <v>124</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" s="8">
+        <v>42.0</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="8">
+        <v>42.0</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="8">
+        <v>42.0</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1832,7 +1865,10 @@
     <hyperlink r:id="rId121" ref="B122"/>
     <hyperlink r:id="rId122" ref="B123"/>
     <hyperlink r:id="rId123" ref="B124"/>
+    <hyperlink r:id="rId124" ref="B125"/>
+    <hyperlink r:id="rId125" ref="B126"/>
+    <hyperlink r:id="rId126" ref="B127"/>
   </hyperlinks>
-  <drawing r:id="rId124"/>
+  <drawing r:id="rId127"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Week</t>
   </si>
@@ -395,6 +395,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/hexagonal-grid/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/password-cracker/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/similarpair/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/superman-celebrates-diwali/problem</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1414,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="8">
+      <c r="A86" s="4">
         <v>29.0</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -1413,7 +1422,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="8">
+      <c r="A87" s="4">
         <v>29.0</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -1421,7 +1430,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="8">
+      <c r="A88" s="4">
         <v>29.0</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -1429,7 +1438,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="8">
+      <c r="A89" s="4">
         <v>30.0</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -1437,7 +1446,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="8">
+      <c r="A90" s="4">
         <v>30.0</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -1445,7 +1454,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="8">
+      <c r="A91" s="4">
         <v>30.0</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -1453,7 +1462,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="8">
+      <c r="A92" s="4">
         <v>31.0</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -1461,7 +1470,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="8">
+      <c r="A93" s="4">
         <v>31.0</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -1469,7 +1478,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="8">
+      <c r="A94" s="4">
         <v>31.0</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -1477,7 +1486,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="8">
+      <c r="A95" s="4">
         <v>32.0</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -1485,7 +1494,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="8">
+      <c r="A96" s="4">
         <v>32.0</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -1493,7 +1502,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="8">
+      <c r="A97" s="4">
         <v>32.0</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -1501,7 +1510,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="8">
+      <c r="A98" s="4">
         <v>33.0</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -1509,7 +1518,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="8">
+      <c r="A99" s="4">
         <v>33.0</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -1517,7 +1526,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="8">
+      <c r="A100" s="4">
         <v>33.0</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -1525,7 +1534,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="8">
+      <c r="A101" s="4">
         <v>34.0</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -1533,7 +1542,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="8">
+      <c r="A102" s="4">
         <v>34.0</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -1541,7 +1550,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="8">
+      <c r="A103" s="4">
         <v>34.0</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -1549,7 +1558,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="8">
+      <c r="A104" s="4">
         <v>35.0</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -1557,7 +1566,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="8">
+      <c r="A105" s="4">
         <v>35.0</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -1565,7 +1574,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="8">
+      <c r="A106" s="4">
         <v>35.0</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -1573,7 +1582,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="8">
+      <c r="A107" s="4">
         <v>36.0</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -1581,7 +1590,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="8">
+      <c r="A108" s="4">
         <v>36.0</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -1589,7 +1598,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="8">
+      <c r="A109" s="4">
         <v>36.0</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -1597,7 +1606,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="8">
+      <c r="A110" s="4">
         <v>37.0</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -1605,7 +1614,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="8">
+      <c r="A111" s="4">
         <v>37.0</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -1613,7 +1622,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="8">
+      <c r="A112" s="4">
         <v>37.0</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -1621,7 +1630,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="8">
+      <c r="A113" s="4">
         <v>38.0</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -1629,7 +1638,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="8">
+      <c r="A114" s="4">
         <v>38.0</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -1637,7 +1646,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="8">
+      <c r="A115" s="4">
         <v>38.0</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -1645,7 +1654,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="8">
+      <c r="A116" s="4">
         <v>39.0</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -1653,7 +1662,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="8">
+      <c r="A117" s="4">
         <v>39.0</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -1661,7 +1670,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="8">
+      <c r="A118" s="4">
         <v>39.0</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -1669,7 +1678,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="8">
+      <c r="A119" s="4">
         <v>40.0</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -1677,7 +1686,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="8">
+      <c r="A120" s="4">
         <v>40.0</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -1685,7 +1694,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="8">
+      <c r="A121" s="4">
         <v>40.0</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -1693,7 +1702,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="8">
+      <c r="A122" s="4">
         <v>41.0</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -1701,7 +1710,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="8">
+      <c r="A123" s="4">
         <v>41.0</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -1709,7 +1718,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="8">
+      <c r="A124" s="4">
         <v>41.0</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -1717,7 +1726,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="8">
+      <c r="A125" s="4">
         <v>42.0</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -1725,7 +1734,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="8">
+      <c r="A126" s="4">
         <v>42.0</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -1733,11 +1742,35 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="8">
+      <c r="A127" s="4">
         <v>42.0</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="8">
+        <v>43.0</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="8">
+        <v>43.0</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="8">
+        <v>43.0</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1868,7 +1901,10 @@
     <hyperlink r:id="rId124" ref="B125"/>
     <hyperlink r:id="rId125" ref="B126"/>
     <hyperlink r:id="rId126" ref="B127"/>
+    <hyperlink r:id="rId127" ref="B128"/>
+    <hyperlink r:id="rId128" ref="B129"/>
+    <hyperlink r:id="rId129" ref="B130"/>
   </hyperlinks>
-  <drawing r:id="rId127"/>
+  <drawing r:id="rId130"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Week</t>
   </si>
@@ -404,6 +404,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/superman-celebrates-diwali/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/strplay/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/arithmetic-expressions/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/array-construction/problem</t>
   </si>
 </sst>
 </file>
@@ -1773,6 +1782,30 @@
         <v>130</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1904,7 +1937,10 @@
     <hyperlink r:id="rId127" ref="B128"/>
     <hyperlink r:id="rId128" ref="B129"/>
     <hyperlink r:id="rId129" ref="B130"/>
+    <hyperlink r:id="rId130" ref="B131"/>
+    <hyperlink r:id="rId131" ref="B132"/>
+    <hyperlink r:id="rId132" ref="B133"/>
   </hyperlinks>
-  <drawing r:id="rId130"/>
+  <drawing r:id="rId133"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Week</t>
   </si>
@@ -413,6 +413,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/array-construction/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/two-two/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/newyear-present/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/police-operation/problem</t>
   </si>
 </sst>
 </file>
@@ -1806,6 +1815,30 @@
         <v>133</v>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" s="8">
+        <v>45.0</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="8">
+        <v>45.0</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="8">
+        <v>45.0</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1940,7 +1973,10 @@
     <hyperlink r:id="rId130" ref="B131"/>
     <hyperlink r:id="rId131" ref="B132"/>
     <hyperlink r:id="rId132" ref="B133"/>
+    <hyperlink r:id="rId133" ref="B134"/>
+    <hyperlink r:id="rId134" ref="B135"/>
+    <hyperlink r:id="rId135" ref="B136"/>
   </hyperlinks>
-  <drawing r:id="rId133"/>
+  <drawing r:id="rId136"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>Week</t>
   </si>
@@ -422,6 +422,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/police-operation/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/choosing-white-balls/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/matrix-land/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/distant-pairs/problem</t>
   </si>
 </sst>
 </file>
@@ -1839,6 +1848,30 @@
         <v>136</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" s="8">
+        <v>46.0</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="8">
+        <v>46.0</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="8">
+        <v>46.0</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1976,7 +2009,10 @@
     <hyperlink r:id="rId133" ref="B134"/>
     <hyperlink r:id="rId134" ref="B135"/>
     <hyperlink r:id="rId135" ref="B136"/>
+    <hyperlink r:id="rId136" ref="B137"/>
+    <hyperlink r:id="rId137" ref="B138"/>
+    <hyperlink r:id="rId138" ref="B139"/>
   </hyperlinks>
-  <drawing r:id="rId136"/>
+  <drawing r:id="rId139"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>Week</t>
   </si>
@@ -431,6 +431,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/distant-pairs/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/computer-game/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/problem-solving/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/aorb/problem</t>
   </si>
 </sst>
 </file>
@@ -1872,6 +1881,30 @@
         <v>139</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" s="8">
+        <v>47.0</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="8">
+        <v>47.0</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="8">
+        <v>47.0</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -2012,7 +2045,10 @@
     <hyperlink r:id="rId136" ref="B137"/>
     <hyperlink r:id="rId137" ref="B138"/>
     <hyperlink r:id="rId138" ref="B139"/>
+    <hyperlink r:id="rId139" ref="B140"/>
+    <hyperlink r:id="rId140" ref="B141"/>
+    <hyperlink r:id="rId141" ref="B142"/>
   </hyperlinks>
-  <drawing r:id="rId139"/>
+  <drawing r:id="rId142"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Week</t>
   </si>
@@ -440,6 +440,15 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/aorb/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/string-reduction/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/decibinary-numbers/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/sherlocks-array-merging-algorithm/problem</t>
   </si>
 </sst>
 </file>
@@ -1905,6 +1914,30 @@
         <v>142</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" s="8">
+        <v>48.0</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="8">
+        <v>48.0</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="8">
+        <v>48.0</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -2048,7 +2081,10 @@
     <hyperlink r:id="rId139" ref="B140"/>
     <hyperlink r:id="rId140" ref="B141"/>
     <hyperlink r:id="rId141" ref="B142"/>
+    <hyperlink r:id="rId142" ref="B143"/>
+    <hyperlink r:id="rId143" ref="B144"/>
+    <hyperlink r:id="rId144" ref="B145"/>
   </hyperlinks>
-  <drawing r:id="rId142"/>
+  <drawing r:id="rId145"/>
 </worksheet>
 </file>
--- a/src/main/resources/weeklyQuestions.xlsx
+++ b/src/main/resources/weeklyQuestions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>Week</t>
   </si>
@@ -449,13 +449,22 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/sherlocks-array-merging-algorithm/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/array-pairs/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/array-and-queries-1/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/the-strange-function/problem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -485,6 +494,10 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -509,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -534,6 +547,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1938,6 +1954,30 @@
         <v>145</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="8">
+        <v>49.0</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="8">
+        <v>49.0</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="8">
+        <v>49.0</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -2084,7 +2124,10 @@
     <hyperlink r:id="rId142" ref="B143"/>
     <hyperlink r:id="rId143" ref="B144"/>
     <hyperlink r:id="rId144" ref="B145"/>
+    <hyperlink r:id="rId145" ref="B146"/>
+    <hyperlink r:id="rId146" ref="B147"/>
+    <hyperlink r:id="rId147" ref="B148"/>
   </hyperlinks>
-  <drawing r:id="rId145"/>
+  <drawing r:id="rId148"/>
 </worksheet>
 </file>